--- a/medicine/Enfance/Daniel_Zimmermann_(écrivain)/Daniel_Zimmermann_(écrivain).xlsx
+++ b/medicine/Enfance/Daniel_Zimmermann_(écrivain)/Daniel_Zimmermann_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniel_Zimmermann_(%C3%A9crivain)</t>
+          <t>Daniel_Zimmermann_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Zimmermann, né le 8 février 1935 à Saint-Denis et mort le 5 décembre 2000 à Paris 15e[1], est un écrivain, un universitaire et éditeur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Zimmermann, né le 8 février 1935 à Saint-Denis et mort le 5 décembre 2000 à Paris 15e, est un écrivain, un universitaire et éditeur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daniel_Zimmermann_(%C3%A9crivain)</t>
+          <t>Daniel_Zimmermann_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 8 février 1935 à Saint-Denis[2],[3], Daniel Zimmermann est fils d'un émigré alsacien converti au socialisme de la première internationale ouvrière et d'une juive polonaise ayant fui le nazisme. Sa famille est anéantie dans les camps de concentration[3] où 73 d'entre-eux y meurent.
-Mobilisé, il participe à la guerre d'Algérie et y passe onze mois[4]. Revenu dégoûté de cette guerre, il en écrit 80 exercices en zone interdite qui est publié en 1961 par Robert Morel. Le scandale qui en découle lui vaut un procès en correctionnelle pour injures à l’armée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 8 février 1935 à Saint-Denis Daniel Zimmermann est fils d'un émigré alsacien converti au socialisme de la première internationale ouvrière et d'une juive polonaise ayant fui le nazisme. Sa famille est anéantie dans les camps de concentration où 73 d'entre-eux y meurent.
+Mobilisé, il participe à la guerre d'Algérie et y passe onze mois. Revenu dégoûté de cette guerre, il en écrit 80 exercices en zone interdite qui est publié en 1961 par Robert Morel. Le scandale qui en découle lui vaut un procès en correctionnelle pour injures à l’armée.
 Il a longtemps enseigné au département des Sciences de l'éducation à l'Université Paris VIII, Vincennes. Docteur en sciences de l'éducation, instigateur avec Claude Pujade-Renaud de la revue Nouvelles Nouvelles (1985-1992), il a écrit des romans, des nouvelles, des biographies, des ouvrages pour la jeunesse et des essais de sciences de l'éducation.
-Il était militant communiste et pédagogue[3]. Il a fondé avec Hiroo Mochizuki, la fédération française de karaté-dō[3] et est devenu professeur d'arts martiaux. Il a publié de nombreux ouvrages sur les sports de combat.
-Il a écrit, au sein du groupe « Marozi », Raymond le chat[3].
+Il était militant communiste et pédagogue. Il a fondé avec Hiroo Mochizuki, la fédération française de karaté-dō et est devenu professeur d'arts martiaux. Il a publié de nombreux ouvrages sur les sports de combat.
+Il a écrit, au sein du groupe « Marozi », Raymond le chat.
 Il a inventé l'analyse du non-verbal dans la relation pédagogique, créé et dirigé aux éditions sociales françaises la collection Sciences de l'éducation, à laquelle ont collaboré notamment Laurence Lentin et Jean Vial.
-Mort le 5 décembre 2000 à Paris[2],[3], il est inhumé au cimetière du Père-Lachaise.
+Mort le 5 décembre 2000 à Paris il est inhumé au cimetière du Père-Lachaise.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniel_Zimmermann_(%C3%A9crivain)</t>
+          <t>Daniel_Zimmermann_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,15 +562,17 @@
           <t>Romans et nouvelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1961 : 80 exercices en zone interdite (Robert Morel)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1961 : 80 exercices en zone interdite (Robert Morel).
 1988 : Nouvelles de la zone interdite (Actes sud, Babel).
 1991 : Federspiel, le joueur de plume (Isoète).
-1997 : L'Anus du monde (Le Cherche midi)[3].
+1997 : L'Anus du monde (Le Cherche midi).
 1998 : Le Dieu devenu homme (Cherche-midi).
 2001 : L'Ultime maîtresse (Cherche-midi).
-Cycle des Chroniques légendaires des gens sans importance[2] :
+Cycle des Chroniques légendaires des gens sans importance :
 1977 : La Garderie (Manya).
 1978 : Les Morts du lundi (Gallimard).
 1981 : Les Chats parallèles (Balland).
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniel_Zimmermann_(%C3%A9crivain)</t>
+          <t>Daniel_Zimmermann_(écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Romans scolaires et jeunesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1972 : Raymond le chat.
 1974 : Le retour de Raymond le chat.
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daniel_Zimmermann_(%C3%A9crivain)</t>
+          <t>Daniel_Zimmermann_(écrivain)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Biographies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1993 : Alexandre Dumas le Grand (Julliard, 1993 ; Phébus 2002, Grand Prix de la Société des Gens de Lettres).
 1999 : Jules Vallès l'Irrégulier (Cherche-midi).</t>
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniel_Zimmermann_(%C3%A9crivain)</t>
+          <t>Daniel_Zimmermann_(écrivain)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,7 +684,9 @@
           <t>Œuvres à quatre mains (avec Claude Pujade-Renaud)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1995 : Les Écritures mêlées (Éditions Julliard).
 2000 : Septuor (Cherche-midi).
